--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>敌人：能在主角靠近的时候攻击造成主角死亡，能被主角攻击死亡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,22 @@
   </si>
   <si>
     <t>美术待接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币系统，可以用来购物，可记录保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景中生成金币，可拾取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具种类：磁铁，护盾，加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡后的逻辑，分享，广告可复活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -132,6 +154,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -161,8 +184,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>664391</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -532,7 +555,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,17 +579,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -581,13 +604,33 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="31.5" x14ac:dyDescent="0.4">

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>敌人：能在主角靠近的时候攻击造成主角死亡，能被主角攻击死亡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>死亡后的逻辑，分享，广告可复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后暂停功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +189,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>664391</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -633,6 +637,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>10</v>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>敌人：能在主角靠近的时候攻击造成主角死亡，能被主角攻击死亡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>死后暂停功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后如果分享等复活，复活的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术暂定，由大家自己去找找图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,15 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,83 +583,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -167,13 +167,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,82 +583,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,109 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
+  </si>
+  <si>
+    <t>添加角色死亡函数，掉下山崖等也会造成死亡</t>
+  </si>
   <si>
     <t>敌人：能在主角靠近的时候攻击造成主角死亡，能被主角攻击死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加角色死亡函数，掉下山崖等也会造成死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>捡道具，捡到道具后放在角色身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具在界面中的UI，点击可以切换武器，用完后抛弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色的道具（武器）属性，可以切换（通过不同状态机）轻击屏幕后攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Boss，Boss拥有简单AI，具体设计待补充-》</t>
+  </si>
+  <si>
+    <t>玩家可以通过攻击打回敌人的飞行道具</t>
   </si>
   <si>
     <t>随着跑步距离增加跑步速度（地图滚动速度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家可以通过攻击打回敌人的飞行道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加Boss，Boss拥有简单AI，具体设计待补充-》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击杀BOSS后通过一个全屏遮挡过度之类的进行场景的切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>金币系统，可以用来购物，可记录保存</t>
+  </si>
+  <si>
+    <t>场景中生成金币，可拾取</t>
+  </si>
+  <si>
+    <t>道具种类：磁铁，护盾，加攻击力</t>
+  </si>
+  <si>
+    <t>死亡后的逻辑，分享，广告可复活</t>
+  </si>
+  <si>
+    <t>死后暂停功能</t>
+  </si>
+  <si>
+    <t>死后如果分享等复活，复活的逻辑</t>
+  </si>
+  <si>
+    <t>资源加载管理器</t>
   </si>
   <si>
     <t>美术待接入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币系统，可以用来购物，可记录保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景中生成金币，可拾取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具种类：磁铁，护盾，加攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡后的逻辑，分享，广告可复活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死后暂停功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死后如果分享等复活，复活的逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美术暂定，由大家自己去找找图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -112,27 +113,162 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,18 +277,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,39 +482,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -214,7 +822,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -227,8 +835,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9011502" y="-1539839"/>
-          <a:ext cx="3086100" cy="6165778"/>
+          <a:off x="9011285" y="-1539240"/>
+          <a:ext cx="3086100" cy="6164580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -258,7 +866,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -271,8 +879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9031116" y="1534941"/>
-          <a:ext cx="3114462" cy="6222444"/>
+          <a:off x="9030970" y="1677670"/>
+          <a:ext cx="3114040" cy="6222365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,7 +935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +970,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,117 +1173,131 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="71.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="14.25" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" ht="31.5" spans="1:1">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>美术暂定，由大家自己去找找图</t>
+  </si>
+  <si>
+    <t>http://www.sucaixiang.com/list-c1018-default-desc-pg5.html</t>
+  </si>
+  <si>
+    <t>（找资源网站1）</t>
   </si>
 </sst>
 </file>
@@ -81,21 +87,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -117,8 +116,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,13 +173,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,29 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,75 +233,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -268,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,13 +281,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +335,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,157 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +460,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,11 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,21 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -583,161 +563,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1179,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1262,12 +1242,12 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1285,7 +1265,7 @@
       </c>
     </row>
     <row r="20" ht="31.5" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1294,7 +1274,18 @@
         <v>19</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId2" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>需不需要选地图系统！还是玩家死了重来就只能从第一关开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式进行分享功能测试以及分享成功流程返回等</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,11 +785,16 @@
         <v>31</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -635,7 +635,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,7 +725,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>正式进行分享功能测试以及分享成功流程返回等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率自适应</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +174,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -221,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -234,6 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -632,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,6 +802,11 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>分辨率自适应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师需要提供一个接口，当重新开始游戏时，清空场景数据，速度距离等,因为重新加载场景这些数据还是保存了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +195,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -234,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -248,6 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -322,8 +352,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>40719</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>145494</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>155019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -649,7 +679,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -804,8 +834,16 @@
         <v>32</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>周老师需要提供一个接口，当重新开始游戏时，清空场景数据，速度距离等,因为重新加载场景这些数据还是保存了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做一个飞行道具的基类以及其相关逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入血量的概念，每个武器攻击力不同</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局提示弹窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -274,10 +290,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -352,8 +371,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>40719</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>155019</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>335994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -676,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,7 +742,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -774,7 +793,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
@@ -782,12 +801,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -797,7 +816,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
@@ -805,12 +824,12 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -820,12 +839,12 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -835,15 +854,34 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
         <v>33</v>
       </c>
     </row>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>zh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始武器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -297,6 +301,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -695,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -870,19 +875,24 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>需不需要选地图系统！还是玩家死了重来就只能从第一关开始</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式进行分享功能测试以及分享成功流程返回等</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -153,27 +149,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>做一个飞行道具的基类以及其相关逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入血量的概念，每个武器攻击力不同</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局提示弹窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始武器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式进行分享功能测试以及分享成功流程返回等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>周老师需要提供一个接口，当重新开始游戏时，清空场景数据，速度距离等,因为重新加载场景这些数据还是保存了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>做一个飞行道具的基类以及其相关逻辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>引入血量的概念，每个武器攻击力不同</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局提示弹窗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始武器</t>
+    <t>多量创建的物体，使用Pool来处理</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,44 +859,49 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>40</v>
+      <c r="A33" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -61,7 +56,19 @@
     <t>场景中生成金币，可拾取</t>
   </si>
   <si>
-    <t>道具种类：磁铁，护盾，加攻击力</t>
+    <r>
+      <t>道具种类：磁铁，护盾，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加攻击力</t>
+    </r>
   </si>
   <si>
     <t>死亡后的逻辑，分享，广告可复活</t>
@@ -76,63 +83,50 @@
     <t>资源加载管理器</t>
   </si>
   <si>
-    <t>美术待接入</t>
-  </si>
-  <si>
-    <t>美术暂定，由大家自己去找找图</t>
-  </si>
-  <si>
-    <t>http://www.sucaixiang.com/list-c1018-default-desc-pg5.html</t>
-  </si>
-  <si>
-    <t>（找资源网站1）</t>
+    <t>开局赠送道具三选一（暂定），每过一个阶段（比如打完BOSS），再送一次选择</t>
+  </si>
+  <si>
+    <t>武器具体种类设计与制作</t>
   </si>
   <si>
     <t>音效与音乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局赠送道具三选一（暂定），每过一个阶段（比如打完BOSS），再送一次选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器具体种类设计与制作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拾取武器后替换当前武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>武器捡起后，某些远程武器应该拥有使用次数，用完后切换回默认武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>周老师的场景处理，例如障碍物生成规则，金币生成规则，敌人生成规则，没有路生成规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商城系统，可用金币买皮肤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需不需要体力系统！！！体力用看广告和时间来增加（也可以接到广告再做）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需不需要选地图系统！还是玩家死了重来就只能从第一关开始</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分辨率自适应</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式进行分享功能测试以及分享成功流程返回等</t>
+  </si>
+  <si>
+    <t>周老师需要提供一个接口，当重新开始游戏时，清空场景数据，速度距离等,因为重新加载场景这些数据还是保存了</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Z</t>
     </r>
     <r>
@@ -140,61 +134,53 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>做一个飞行道具的基类以及其相关逻辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引入血量的概念，每个武器攻击力不同</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局提示弹窗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率自适应</t>
   </si>
   <si>
     <t>初始武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式进行分享功能测试以及分享成功流程返回等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周老师需要提供一个接口，当重新开始游戏时，清空场景数据，速度距离等,因为重新加载场景这些数据还是保存了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>多量创建的物体，使用Pool来处理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术待接入</t>
+  </si>
+  <si>
+    <t>美术暂定，由大家自己去找找图</t>
+  </si>
+  <si>
+    <t>http://www.sucaixiang.com/list-c1018-default-desc-pg5.html</t>
+  </si>
+  <si>
+    <t>（找资源网站1）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -217,7 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,7 +213,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,12 +221,154 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,19 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,8 +393,212 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,52 +606,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -347,7 +957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -360,7 +970,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9011285" y="-1539240"/>
+          <a:off x="9773285" y="-1539240"/>
           <a:ext cx="3086100" cy="6164580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -391,7 +1001,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -404,7 +1014,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9030970" y="1677670"/>
+          <a:off x="9792970" y="1677670"/>
           <a:ext cx="3114040" cy="6222365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -698,253 +1308,249 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="71.25" customWidth="1"/>
+    <col min="1" max="1" width="81.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="31.5" customHeight="1" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="14.25" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="14.25" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" ht="14.25" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="14.25" spans="1:1">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="14.25" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="14.25" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="14.25" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="12" t="s">
+    <row r="30" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" ht="31.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -57,6 +57,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>道具种类：磁铁，护盾，</t>
     </r>
     <r>
@@ -178,7 +185,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +217,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -217,87 +225,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +256,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,7 +285,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +329,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -368,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,109 +413,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,36 +575,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,36 +582,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,32 +595,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,11 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +663,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -710,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,16 +710,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,115 +728,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -870,9 +858,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -970,7 +958,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9773285" y="-1539240"/>
+          <a:off x="11211560" y="-1539240"/>
           <a:ext cx="3086100" cy="6164580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1014,7 +1002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9792970" y="1677670"/>
+          <a:off x="11231245" y="1677670"/>
           <a:ext cx="3114040" cy="6222365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1316,13 +1304,13 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="81.25" customWidth="1"/>
+    <col min="1" max="1" width="100.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>金币系统，可以用来购物，可记录保存</t>
+  </si>
+  <si>
+    <t>（金币有了还没存数量）</t>
   </si>
   <si>
     <t>场景中生成金币，可拾取</t>
@@ -180,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -233,7 +236,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,109 +333,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,175 +416,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +623,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -634,11 +652,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,46 +695,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,16 +713,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,112 +734,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,7 +1308,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1366,14 +1369,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:1">
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" ht="14.25" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1381,27 +1387,27 @@
     </row>
     <row r="13" ht="14.25" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1409,92 +1415,92 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
-        <v>24</v>
+      <c r="A23" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="39.75" customHeight="1" spans="1:2">
       <c r="A28" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="39.75" customHeight="1" spans="1:2">
       <c r="A29" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="39.75" customHeight="1" spans="1:2">
       <c r="A30" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1518,20 +1524,20 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -177,18 +182,16 @@
   <si>
     <t>（找资源网站1）</t>
   </si>
+  <si>
+    <t>设计敌人武器道具等！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,150 +231,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,13 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,198 +278,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -597,256 +309,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -864,69 +337,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -948,7 +379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -992,7 +423,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1299,69 +730,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="100.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:1">
+    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:1">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:1">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:1">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:1">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1385,27 +816,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:1">
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:1">
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:1">
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1413,22 +844,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -1436,37 +867,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" ht="39.75" customHeight="1" spans="1:2">
+    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="39.75" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -1482,57 +913,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="39.75" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1541,10 +976,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -171,6 +166,18 @@
     <t>多量创建的物体，使用Pool来处理</t>
   </si>
   <si>
+    <t>设计敌人武器道具等！</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>资产条</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
     <t>美术待接入</t>
   </si>
   <si>
@@ -181,17 +188,19 @@
   </si>
   <si>
     <t>（找资源网站1）</t>
-  </si>
-  <si>
-    <t>设计敌人武器道具等！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,27 +240,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39991454817346722"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,30 +410,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -309,17 +627,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -330,34 +887,77 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -379,7 +979,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -392,7 +992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="11211560" y="-1539240"/>
+          <a:off x="11697335" y="-1539240"/>
           <a:ext cx="3086100" cy="6164580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -423,7 +1023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -436,7 +1036,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="11231245" y="1677670"/>
+          <a:off x="11717020" y="1677670"/>
           <a:ext cx="3114040" cy="6222365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -730,69 +1330,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="100.125" customWidth="1"/>
+    <col min="1" max="1" width="106.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="31.5" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="14.25" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" ht="14.25" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" ht="14.25" spans="1:1">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" ht="14.25" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" ht="14.25" spans="1:2">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -800,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -808,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -816,27 +1416,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" ht="14.25" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
@@ -844,22 +1444,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -867,45 +1467,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+    <row r="28" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="39.75" customHeight="1" spans="1:2">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -913,73 +1513,89 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="39.75" customHeight="1" spans="1:2">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -189,18 +194,134 @@
   <si>
     <t>（找资源网站1）</t>
   </si>
+  <si>
+    <t>5.18 讨论内容汇总</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oading界面，Loading之后直接是Menu菜单</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu菜单显示金币，体力，显示所有皮肤（已获得以及未获得），可以在该界面购买皮肤以及进入游戏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换关卡转场，地面道路可以上下起伏，（起伏不会特别大，提出配置）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币配置，金币分层，金币不要与道具武器混在一起</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵一滴血，玩家两滴血</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪：出现在屏幕上方，出现攻击你几下就跑了，普通的武器打不到他，如果打死给玩家加血</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人远程攻击不能被抵消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>御剑：使用后人站在剑上飞行，飞行高度为起伏地面的最高处，飞过之处底下的杂兵全死</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀：就飞刀 有攻击间隔，已有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器设计：需要权重，高级武器不应该那么容易出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭子：要提前甩，攻击距离很长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪飞轮（剑气）：身边一圈，有敌人出现时，飞出去攻击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬移：人往前瞬间移动一段（加点特效），之后人物和背景一起加速后移，造成一种摄像机前移追上的感觉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷：攻击直接落在敌人头上，劈他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>月牙天冲：超大范围超强攻击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导：第一次捡到强力武器道具等弹出一个TIP框说明文字带图片，玩家点击关闭继续游戏；第一次进入游戏弹出Tips显示操作提示。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具设计：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风筝：飞起来，点一下飞高一点，不点的话就会一直下降（Flypbird）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号：随机获得任意一种道具武器或者得到一坨屎或者把武器清空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾弹：捡到之后（被攻击到）视野就只剩下一点点（遮罩）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OSS设计：</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞板子的BOSS,打坏路面，玩家站在板子上攻击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS弹幕攻击，要躲避</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,24 +361,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,125 +386,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,13 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
+        <fgColor theme="6" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,216 +418,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -627,337 +443,56 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -979,7 +514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1023,7 +558,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1330,85 +865,85 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="106.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:1">
+    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:1">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:1">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1416,174 +951,296 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:1">
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:1">
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="17" t="s">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1592,10 +1249,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -177,122 +172,92 @@
     <t>特效</t>
   </si>
   <si>
+    <t>hml</t>
+  </si>
+  <si>
     <t>资产条</t>
   </si>
   <si>
     <t>体力</t>
   </si>
   <si>
-    <t>美术待接入</t>
-  </si>
-  <si>
-    <t>美术暂定，由大家自己去找找图</t>
-  </si>
-  <si>
-    <t>http://www.sucaixiang.com/list-c1018-default-desc-pg5.html</t>
-  </si>
-  <si>
-    <t>（找资源网站1）</t>
-  </si>
-  <si>
     <t>5.18 讨论内容汇总</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
+  </si>
+  <si>
+    <t>loading界面，Loading之后直接是Menu菜单</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Menu菜单显示金币，体力，显示所有皮肤（已获得以及未获得），可以在该界面购买皮肤以及进入游戏</t>
+  </si>
+  <si>
+    <t>切换关卡转场，地面道路可以上下起伏，（起伏不会特别大，提出配置）</t>
+  </si>
+  <si>
+    <t>zr</t>
+  </si>
+  <si>
+    <t>金币配置，金币分层，金币不要与道具武器混在一起</t>
+  </si>
+  <si>
+    <t>杂兵一滴血，玩家两滴血</t>
+  </si>
+  <si>
+    <t>精英怪：出现在屏幕上方，出现攻击你几下就跑了，普通的武器打不到他，如果打死给玩家加血</t>
+  </si>
+  <si>
+    <t>敌人远程攻击不能被抵消</t>
+  </si>
+  <si>
+    <t>新手引导：第一次捡到强力武器道具等弹出一个TIP框说明文字带图片，玩家点击关闭继续游戏；第一次进入游戏弹出Tips显示操作提示。</t>
+  </si>
+  <si>
+    <t>武器设计：需要权重，高级武器不应该那么容易出</t>
+  </si>
+  <si>
+    <t>御剑：使用后人站在剑上飞行，飞行高度为起伏地面的最高处，飞过之处底下的杂兵全死</t>
+  </si>
+  <si>
+    <t>飞刀：就飞刀 有攻击间隔，已有</t>
+  </si>
+  <si>
+    <t>鞭子：要提前甩，攻击距离很长</t>
+  </si>
+  <si>
+    <t>跟踪飞轮（剑气）：身边一圈，有敌人出现时，飞出去攻击</t>
+  </si>
+  <si>
+    <t>瞬移：人往前瞬间移动一段（加点特效），之后人物和背景一起加速后移，造成一种摄像机前移追上的感觉</t>
+  </si>
+  <si>
+    <t>天雷：攻击直接落在敌人头上，劈他</t>
+  </si>
+  <si>
+    <t>月牙天冲：超大范围超强攻击</t>
+  </si>
+  <si>
+    <t>道具设计：</t>
+  </si>
+  <si>
+    <t>风筝：飞起来，点一下飞高一点，不点的话就会一直下降（Flypbird）</t>
+  </si>
+  <si>
+    <t>问号：随机获得任意一种道具武器或者得到一坨屎或者把武器清空</t>
+  </si>
+  <si>
+    <t>烟雾弹：捡到之后（被攻击到）视野就只剩下一点点（遮罩）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>oading界面，Loading之后直接是Menu菜单</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu菜单显示金币，体力，显示所有皮肤（已获得以及未获得），可以在该界面购买皮肤以及进入游戏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换关卡转场，地面道路可以上下起伏，（起伏不会特别大，提出配置）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币配置，金币分层，金币不要与道具武器混在一起</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵一滴血，玩家两滴血</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪：出现在屏幕上方，出现攻击你几下就跑了，普通的武器打不到他，如果打死给玩家加血</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人远程攻击不能被抵消</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>御剑：使用后人站在剑上飞行，飞行高度为起伏地面的最高处，飞过之处底下的杂兵全死</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀：就飞刀 有攻击间隔，已有</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器设计：需要权重，高级武器不应该那么容易出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞭子：要提前甩，攻击距离很长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪飞轮（剑气）：身边一圈，有敌人出现时，飞出去攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬移：人往前瞬间移动一段（加点特效），之后人物和背景一起加速后移，造成一种摄像机前移追上的感觉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷：攻击直接落在敌人头上，劈他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>月牙天冲：超大范围超强攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导：第一次捡到强力武器道具等弹出一个TIP框说明文字带图片，玩家点击关闭继续游戏；第一次进入游戏弹出Tips显示操作提示。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具设计：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风筝：飞起来，点一下飞高一点，不点的话就会一直下降（Flypbird）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>问号：随机获得任意一种道具武器或者得到一坨屎或者把武器清空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟雾弹：捡到之后（被攻击到）视野就只剩下一点点（遮罩）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>B</t>
     </r>
     <r>
@@ -300,28 +265,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>OSS设计：</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>飞板子的BOSS,打坏路面，玩家站在板子上攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BOSS弹幕攻击，要躲避</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术待接入</t>
+  </si>
+  <si>
+    <t>美术暂定，由大家自己去找找图</t>
+  </si>
+  <si>
+    <t>http://www.sucaixiang.com/list-c1018-default-desc-pg5.html</t>
+  </si>
+  <si>
+    <t>（找资源网站1）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,37 +340,165 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,13 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39988402966399123"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,24 +531,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -443,17 +748,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -462,37 +1006,82 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -514,7 +1103,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -558,7 +1147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -865,85 +1454,85 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="106.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="31.5" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="14.25" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+    <row r="7" ht="14.25" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="14.25" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" ht="14.25" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -951,308 +1540,357 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+    <row r="28" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
+    <row r="29" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
+    <row r="30" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
+      <c r="B41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19" t="s">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19" t="s">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="19" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="20"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="18" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="19" t="s">
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="19" t="s">
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="19" t="s">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="19" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -296,11 +296,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,29 +341,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +373,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -386,23 +381,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,55 +403,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,6 +447,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,187 +540,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +713,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -759,39 +735,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -822,16 +765,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,16 +798,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,16 +831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,119 +849,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
@@ -1016,9 +983,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1463,7 +1429,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1687,7 +1653,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F39" t="s">
@@ -1695,12 +1661,12 @@
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
@@ -1708,7 +1674,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
@@ -1716,7 +1682,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
@@ -1724,7 +1690,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
@@ -1732,12 +1698,12 @@
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
@@ -1745,7 +1711,7 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="19" t="s">
@@ -1753,7 +1719,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B49" t="s">
@@ -1761,12 +1727,12 @@
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
@@ -1774,7 +1740,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B52" t="s">
@@ -1782,7 +1748,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
@@ -1790,7 +1756,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
@@ -1798,7 +1764,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">
@@ -1811,7 +1777,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
@@ -1819,7 +1785,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
@@ -1827,7 +1793,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
@@ -1835,17 +1801,17 @@
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="15" t="s">
         <v>67</v>
       </c>
     </row>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -340,6 +340,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -348,6 +392,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -356,9 +431,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,52 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -425,57 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -540,169 +540,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,24 +718,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +738,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,37 +799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,16 +831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,112 +852,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -348,7 +348,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,120 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -540,18 +540,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,13 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,25 +678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,97 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,32 +713,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -775,11 +749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,17 +794,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,145 +819,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1428,8 +1428,8 @@
   <sheetPr/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1748,7 +1748,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -250,6 +250,9 @@
     <t>烟雾弹：捡到之后（被攻击到）视野就只剩下一点点（遮罩）</t>
   </si>
   <si>
+    <t>（待资源和调位置）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -341,6 +344,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -349,6 +366,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,28 +388,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,68 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -540,169 +543,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +716,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -742,39 +769,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,13 +802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,145 +822,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,27 +1795,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
       </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1836,20 +1842,20 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -281,29 +286,102 @@
     <t>BOSS弹幕攻击，要躲避</t>
   </si>
   <si>
-    <t>美术待接入</t>
-  </si>
-  <si>
-    <t>美术暂定，由大家自己去找找图</t>
-  </si>
-  <si>
-    <t>http://www.sucaixiang.com/list-c1018-default-desc-pg5.html</t>
-  </si>
-  <si>
-    <t>（找资源网站1）</t>
+    <t>缺美术资源及具体表现效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术已有以及缺失部分，待补充</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色一：</t>
+  </si>
+  <si>
+    <t>攻击动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风筝动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y（待修改）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扔飞镖动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y（与攻击动画同一个）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充。。。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵1近战</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵2远程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N（是否需要）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景现在，还没有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,150 +421,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,19 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
+        <fgColor theme="6" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,13 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,180 +494,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -718,256 +507,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -988,69 +537,32 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1072,7 +584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1116,7 +628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1423,216 +935,217 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="106.5" customWidth="1"/>
+    <col min="1" max="1" width="105.625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="17" t="s">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1640,163 +1153,166 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="15"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="19" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="20" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="18" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="18" t="s">
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="18" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
@@ -1806,63 +1322,223 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="14" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://www.sucaixiang.com/list-c1018-default-desc-pg5.html"/>
-  </hyperlinks>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -207,9 +207,6 @@
     <t>金币配置，金币分层，金币不要与道具武器混在一起</t>
   </si>
   <si>
-    <t>杂兵一滴血，玩家两滴血</t>
-  </si>
-  <si>
     <t>精英怪：出现在屏幕上方，出现攻击你几下就跑了，普通的武器打不到他，如果打死给玩家加血</t>
   </si>
   <si>
@@ -374,6 +371,18 @@
   </si>
   <si>
     <t>场景现在，还没有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵一滴血，玩家两滴血</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个近战杂兵和一个远程杂兵</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,7 +741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,8 +1207,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="14" t="s">
-        <v>49</v>
+      <c r="A43" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -1207,7 +1216,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -1215,12 +1224,12 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -1231,12 +1240,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -1244,12 +1253,12 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -1257,7 +1266,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -1265,7 +1274,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>47</v>
@@ -1273,18 +1282,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
@@ -1292,12 +1301,12 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -1305,7 +1314,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
@@ -1313,28 +1322,38 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
@@ -1365,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1376,155 +1395,155 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>

--- a/进度文档/待做功能及工作等.xlsx
+++ b/进度文档/待做功能及工作等.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEXIN\Running\进度文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="程序相关" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>角色死亡重开游戏功能，其中涉及：死亡后打开分享界面，预留弹出广告接口</t>
   </si>
@@ -207,6 +202,9 @@
     <t>金币配置，金币分层，金币不要与道具武器混在一起</t>
   </si>
   <si>
+    <t>杂兵一滴血，玩家两滴血</t>
+  </si>
+  <si>
     <t>精英怪：出现在屏幕上方，出现攻击你几下就跑了，普通的武器打不到他，如果打死给玩家加血</t>
   </si>
   <si>
@@ -235,6 +233,9 @@
   </si>
   <si>
     <t>天雷：攻击直接落在敌人头上，劈他</t>
+  </si>
+  <si>
+    <t>缺美术资源及具体表现效果</t>
   </si>
   <si>
     <t>月牙天冲：超大范围超强攻击</t>
@@ -283,114 +284,86 @@
     <t>BOSS弹幕攻击，要躲避</t>
   </si>
   <si>
-    <t>缺美术资源及具体表现效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>杂兵：</t>
+  </si>
+  <si>
+    <t>一个近战杂兵和一个远程杂兵</t>
   </si>
   <si>
     <t>美术已有以及缺失部分，待补充</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>玩家角色：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计图</t>
+  </si>
+  <si>
+    <t>攻击动画</t>
+  </si>
+  <si>
+    <t>跳跃动画</t>
+  </si>
+  <si>
+    <t>跑步动画</t>
+  </si>
+  <si>
+    <t>受伤动画</t>
+  </si>
+  <si>
+    <t>死亡动画</t>
+  </si>
+  <si>
+    <t>风筝动画</t>
+  </si>
+  <si>
+    <t>扔飞镖动画</t>
+  </si>
+  <si>
+    <t>补充。。。</t>
   </si>
   <si>
     <t>角色一：</t>
   </si>
   <si>
-    <t>攻击动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑步动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风筝动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跃动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Y（待修改）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N（是否需要）</t>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>扔飞镖动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Y（与攻击动画同一个）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充。。。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杂兵1近战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杂兵2远程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Boss1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N（是否需要）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>场景现在，还没有</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵一滴血，玩家两滴血</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个近战杂兵和一个远程杂兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +388,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -430,29 +411,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,19 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39985351115451523"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39991454817346722"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,12 +605,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -516,25 +804,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -542,36 +1075,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -593,7 +1163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -606,7 +1176,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="11697335" y="-1539240"/>
+          <a:off x="12887960" y="-1539240"/>
           <a:ext cx="3086100" cy="6164580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -637,7 +1207,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -650,7 +1220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="11717020" y="1677670"/>
+          <a:off x="12907645" y="1677670"/>
           <a:ext cx="3114040" cy="6222365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -706,7 +1276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,7 +1311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,217 +1514,217 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="105.625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="31.5" customHeight="1" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="14.25" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="14.25" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="14.25" spans="1:1">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="14.25" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="14.25" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="14.25" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+    <row r="28" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
+    <row r="29" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
+    <row r="30" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1162,402 +1732,403 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
-        <v>91</v>
+    <row r="43" spans="1:2">
+      <c r="A43" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="14" t="s">
-        <v>49</v>
+    <row r="44" spans="1:2">
+      <c r="A44" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="21" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="14" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="20" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="14" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="21" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="14" t="s">
-        <v>56</v>
+    <row r="52" spans="1:2">
+      <c r="A52" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
-        <v>57</v>
+    <row r="53" spans="1:2">
+      <c r="A53" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="15" t="s">
-        <v>58</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="19" t="s">
-        <v>61</v>
+    <row r="57" spans="1:1">
+      <c r="A57" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="14" t="s">
-        <v>62</v>
+    <row r="59" spans="1:2">
+      <c r="A59" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="17" t="s">
-        <v>63</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
+      <c r="A63" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" ht="31.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" ht="31.5" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:G14"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>